--- a/Catcher3_stat.xlsx
+++ b/Catcher3_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED91B7-6AC9-43FF-A066-93CD74594B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DCAE59-CDFE-49B4-8516-18FD30EA22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1875" windowWidth="26595" windowHeight="18285" xr2:uid="{D9BE1268-6365-4D62-A86B-30CD017E0267}"/>
   </bookViews>
@@ -416,11 +416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780775EE-A0DA-4751-8F78-60DEEC99FC75}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1539,16 +1537,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B102">
-        <f>COUNTIF(B2:B101, "Yes")</f>
-        <v>25</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
